--- a/杨氏模量.xlsx
+++ b/杨氏模量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82753428-A649-40E3-885A-8CE9B4B5EF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4722A8-CA4B-4A43-8183-0C95509D2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>2.杨氏模量的测量</t>
   </si>
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Authored by Axolyz.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,15 +266,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20 B27:K27 B31:F31 B34:G34 B38 D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -749,7 +745,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1267,28 +1263,26 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/杨氏模量.xlsx
+++ b/杨氏模量.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4722A8-CA4B-4A43-8183-0C95509D2965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782ED2EB-D492-4E41-AFE1-F69F5D4F448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>2.杨氏模量的测量</t>
   </si>
@@ -255,18 +255,6 @@
   </si>
   <si>
     <t>杨氏模量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -720,7 +708,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -738,75 +726,64 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.6660000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>1.6660000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -815,216 +792,195 @@
         <v>12</v>
       </c>
       <c r="D14" s="4">
+        <v>1.6660000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="16" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
         <v>0.68300000000000005</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I18" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
     <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="15">
-        <f>AVERAGE(B17:G17)</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="15">
-        <f>TINV(1-H17,I17-1)</f>
-        <v>1.1112993007774183</v>
-      </c>
-      <c r="D20" s="15">
-        <f>_xlfn.STDEV.S(B17:G17)</f>
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="15">
+        <f>AVERAGE(B18:G18)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <f>IF(I18&lt;6,ROUND(TINV(1-H18,I18-1),2),1)</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <f>_xlfn.STDEV.S(B18:G18)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="15">
-        <f>C20/SQRT(I17)*D20</f>
+      <c r="E21" s="15">
+        <f>C21/SQRT(I18)*D21</f>
         <v>0</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="16">
         <f>0.001/SQRT(3)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="G20" s="15">
-        <f>SQRT(E20^2+F20^2)</f>
+      <c r="G21" s="15">
+        <f>SQRT(E21^2+F21^2)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="B26" s="10">
         <v>1</v>
@@ -1059,226 +1015,241 @@
     </row>
     <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="17">
-        <f>AVERAGE(B25:B26)</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="17">
-        <f>AVERAGE(C25:C26)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" ref="D27:I27" si="0">AVERAGE(D25:D26)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="B28" s="17">
+        <f>AVERAGE(B26:B27)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="17">
+        <f>AVERAGE(C26:C27)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" ref="D28:I28" si="0">AVERAGE(D26:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I28" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J27" s="17">
-        <f>AVERAGE(J25:J26)</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="17">
-        <f>AVERAGE(K25:K26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="J28" s="17">
+        <f>AVERAGE(J26:J27)</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="17">
+        <f>AVERAGE(K26:K27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="17">
-        <f>G27-B27</f>
+      <c r="B32" s="17">
+        <f>G28-B28</f>
         <v>0</v>
       </c>
-      <c r="C31" s="17">
-        <f t="shared" ref="C31:D31" si="1">H27-C27</f>
+      <c r="C32" s="17">
+        <f t="shared" ref="C32:D32" si="1">H28-C28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D32" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="17">
-        <f>J27-E27</f>
+      <c r="E32" s="17">
+        <f>J28-E28</f>
         <v>0</v>
       </c>
-      <c r="F31" s="17">
-        <f>K27-F27</f>
+      <c r="F32" s="17">
+        <f>K28-F28</f>
         <v>0</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
     <row r="33" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="17">
-        <f>AVERAGE(B31:F31)</f>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="17">
+        <f>AVERAGE(B32:F32)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="18">
-        <f>TINV(1-G31,H31-1)</f>
-        <v>1.142464978621401</v>
-      </c>
-      <c r="D34" s="18">
-        <f>_xlfn.STDEV.S(B31:F31)</f>
+      <c r="C35" s="18">
+        <f>IF(H32&lt;6,ROUND(TINV(1-G32,H32-1),2),1)</f>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D35" s="18">
+        <f>_xlfn.STDEV.S(B32:F32)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="18">
-        <f>C34/SQRT(I17)*D34</f>
+      <c r="E35" s="18">
+        <f>C35/SQRT(I18)*D35</f>
         <v>0</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <f>0.001/SQRT(3)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="G34" s="18">
-        <f>SQRT(E34^2+F34^2)</f>
+      <c r="G35" s="18">
+        <f>SQRT(E35^2+F35^2)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="18" t="e">
-        <f>(32*5*B8*9.8*B12/100*B13/100)/(3.14*B14/100*(B20/1000)^2*B34/100)</f>
+      <c r="B39" s="18" t="e">
+        <f>(32*5*B9*9.8*B13/100*B14/100)/(3.14*B15/100*(B21/1000)^2*B35/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="18" t="e">
-        <f>SQRT((G34/B34)^2+(2*G20/B20)^2+(D12/B12)^2+(D13/B13)^2+(D14/B14)^2)*B38</f>
+      <c r="D39" s="18" t="e">
+        <f>SQRT((G35/B35)^2+(2*G21/B21)^2+(D13/B13)^2+(D14/B14)^2+(D15/B15)^2)*B39</f>
         <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">

--- a/杨氏模量.xlsx
+++ b/杨氏模量.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782ED2EB-D492-4E41-AFE1-F69F5D4F448C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8EA36-BAA0-4105-A518-7095D8340B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>2.杨氏模量的测量</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(与μD对齐位数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位数后(最高次有效数字为1,2保留两位,反之保留一位)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,10 +278,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,13 +302,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,7 +375,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -388,9 +390,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyProtection="1">
@@ -415,14 +414,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +712,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -843,28 +847,28 @@
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.68300000000000005</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>6</v>
       </c>
     </row>
@@ -906,354 +910,387 @@
     </row>
     <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="15">
+      <c r="B21" s="19">
         <f>AVERAGE(B18:G18)</f>
         <v>1</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="13">
         <f>IF(I18&lt;6,ROUND(TINV(1-H18,I18-1),2),1)</f>
         <v>1</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <f>_xlfn.STDEV.S(B18:G18)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <f>C21/SQRT(I18)*D21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <f>0.001/SQRT(3)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <f>SQRT(E21^2+F21^2)</f>
         <v>5.773502691896258E-4</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="21" t="str">
+        <f>IF(G21*10^INT(-LOG(ABS(G21)))&lt;0.3,FIXED(B21,1-INT(LOG(G21)),1),FIXED(B21,-INT(LOG(G21)),1))</f>
+        <v>1.0000</v>
+      </c>
+      <c r="G23" s="21" t="str">
+        <f>IF(G21*10^INT(-LOG(ABS(G21)))&lt;0.3,FIXED(G21,1-INT(LOG(G21)),1),FIXED(G21,-INT(LOG(G21)),1))</f>
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K28" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10">
-        <v>1</v>
-      </c>
-      <c r="K26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>1</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="17">
-        <f>AVERAGE(B26:B27)</f>
-        <v>1</v>
-      </c>
-      <c r="C28" s="17">
-        <f>AVERAGE(C26:C27)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" ref="D28:I28" si="0">AVERAGE(D26:D27)</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="B31" s="15">
+        <f>AVERAGE(B29:B30)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="15">
+        <f>AVERAGE(C29:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" ref="D31:I31" si="0">AVERAGE(D29:D30)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F31" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H31" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I31" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J28" s="17">
-        <f>AVERAGE(J26:J27)</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="17">
-        <f>AVERAGE(K26:K27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="J31" s="15">
+        <f>AVERAGE(J29:J30)</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="15">
+        <f>AVERAGE(K29:K30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+    <row r="35" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="17">
-        <f>G28-B28</f>
+      <c r="B35" s="15">
+        <f>G31-B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="17">
-        <f t="shared" ref="C32:D32" si="1">H28-C28</f>
+      <c r="C35" s="15">
+        <f t="shared" ref="C35:D35" si="1">H31-C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D35" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="17">
-        <f>J28-E28</f>
+      <c r="E35" s="15">
+        <f>J31-E31</f>
         <v>0</v>
       </c>
-      <c r="F32" s="17">
-        <f>K28-F28</f>
+      <c r="F35" s="15">
+        <f>K31-F31</f>
         <v>0</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G35" s="11">
         <v>0.68300000000000005</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H35" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+    <row r="36" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="17">
-        <f>AVERAGE(B32:F32)</f>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="15">
+        <f>AVERAGE(B35:F35)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="18">
-        <f>IF(H32&lt;6,ROUND(TINV(1-G32,H32-1),2),1)</f>
+      <c r="C38" s="16">
+        <f>IF(H35&lt;6,ROUND(TINV(1-G35,H35-1),2),1)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="D35" s="18">
-        <f>_xlfn.STDEV.S(B32:F32)</f>
+      <c r="D38" s="16">
+        <f>_xlfn.STDEV.S(B35:F35)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="18">
-        <f>C35/SQRT(I18)*D35</f>
+      <c r="E38" s="16">
+        <f>C38/SQRT(I18)*D38</f>
         <v>0</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F38" s="17">
         <f>0.001/SQRT(3)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="G35" s="18">
-        <f>SQRT(E35^2+F35^2)</f>
+      <c r="G38" s="16">
+        <f>SQRT(E38^2+F38^2)</f>
         <v>5.773502691896258E-4</v>
       </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="21" t="str">
+        <f>IF(G38*10^INT(-LOG(ABS(G38)))&lt;0.3,FIXED(B38,1-INT(LOG(G38)),1),FIXED(B38,-INT(LOG(G38)),1))</f>
+        <v>0.0000</v>
+      </c>
+      <c r="G40" s="21" t="str">
+        <f>IF(G38*10^INT(-LOG(ABS(G38)))&lt;0.3,FIXED(G38,1-INT(LOG(G38)),1),FIXED(G38,-INT(LOG(G38)),1))</f>
+        <v>0.0006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="43" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="44" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="18" t="e">
-        <f>(32*5*B9*9.8*B13/100*B14/100)/(3.14*B15/100*(B21/1000)^2*B35/100)</f>
+      <c r="B44" s="16" t="e">
+        <f>(32*5*B9*9.8*B13/100*B14/100)/(3.14*B15/100*(B21/1000)^2*B38/100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="18" t="e">
-        <f>SQRT((G35/B35)^2+(2*G21/B21)^2+(D13/B13)^2+(D14/B14)^2+(D15/B15)^2)*B39</f>
+      <c r="D44" s="16" t="e">
+        <f>SQRT((G38/B38)^2+(2*G21/B21)^2+(D13/B13)^2+(D14/B14)^2+(D15/B15)^2)*B44</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
